--- a/public/data/sale.xlsx
+++ b/public/data/sale.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -36,31 +36,10 @@
     <t>images</t>
   </si>
   <si>
-    <t>پروژه مسکونی همت</t>
+    <t>state</t>
   </si>
   <si>
-    <t>پروژه اداری ونک</t>
-  </si>
-  <si>
-    <t>ساختمان ۱۰ طبقه مسکونی در شمال تهران</t>
-  </si>
-  <si>
-    <t>ساختمان اداری ۱۵ طبقه در میدان ونک</t>
-  </si>
-  <si>
-    <t>این پروژه شامل ۱۰ طبقه مسکونی، پارکینگ، لابی و امکانات رفاهی کامل است...</t>
-  </si>
-  <si>
-    <t>دارای دفاتر اداری مدرن، سالن کنفرانس و پارکینگ طبقاتی.</t>
-  </si>
-  <si>
-    <t>/projects/tehran1.jpg, /projects/tehran2.jpg, /projects/tehran3.jpg</t>
-  </si>
-  <si>
-    <t>/projects/vanak1.jpg, /projects/vanak2.jpg</t>
-  </si>
-  <si>
-    <t>state</t>
+    <t>واحدی جهت فروش موجود نمی باشد</t>
   </si>
 </sst>
 </file>
@@ -436,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -475,80 +454,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/public/data/sale.xlsx
+++ b/public/data/sale.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +462,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -472,9 +470,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -482,9 +478,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
